--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt5a-Fzd3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt5a-Fzd3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Wnt5a</t>
+  </si>
+  <si>
+    <t>Fzd3</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Wnt5a</t>
-  </si>
-  <si>
-    <t>Fzd3</t>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.04240166666666666</v>
+        <v>8.775005999999999</v>
       </c>
       <c r="H2">
-        <v>0.127205</v>
+        <v>26.325018</v>
       </c>
       <c r="I2">
-        <v>0.004737824075193167</v>
+        <v>0.9920592728348052</v>
       </c>
       <c r="J2">
-        <v>0.004737824075193166</v>
+        <v>0.9920592728348053</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2767476666666667</v>
+        <v>0.3251496666666667</v>
       </c>
       <c r="N2">
-        <v>0.8302430000000001</v>
+        <v>0.975449</v>
       </c>
       <c r="O2">
-        <v>0.1013437297028556</v>
+        <v>0.07121046526627427</v>
       </c>
       <c r="P2">
-        <v>0.1013437297028556</v>
+        <v>0.07121046526627427</v>
       </c>
       <c r="Q2">
-        <v>0.01173456231277778</v>
+        <v>2.853190275898</v>
       </c>
       <c r="R2">
-        <v>0.105611060815</v>
+        <v>25.678712483082</v>
       </c>
       <c r="S2">
-        <v>0.0004801487624560582</v>
+        <v>0.0706450023902882</v>
       </c>
       <c r="T2">
-        <v>0.000480148762456058</v>
+        <v>0.07064500239028822</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.04240166666666666</v>
+        <v>8.775005999999999</v>
       </c>
       <c r="H3">
-        <v>0.127205</v>
+        <v>26.325018</v>
       </c>
       <c r="I3">
-        <v>0.004737824075193167</v>
+        <v>0.9920592728348052</v>
       </c>
       <c r="J3">
-        <v>0.004737824075193166</v>
+        <v>0.9920592728348053</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +623,22 @@
         <v>3.023459</v>
       </c>
       <c r="O3">
-        <v>0.3690589522147927</v>
+        <v>0.2207208394324094</v>
       </c>
       <c r="P3">
-        <v>0.3690589522147927</v>
+        <v>0.2207208394324094</v>
       </c>
       <c r="Q3">
-        <v>0.0427332335661111</v>
+        <v>8.843623621917999</v>
       </c>
       <c r="R3">
-        <v>0.3845991020949999</v>
+        <v>79.592612597262</v>
       </c>
       <c r="S3">
-        <v>0.001748536388968809</v>
+        <v>0.2189681554668039</v>
       </c>
       <c r="T3">
-        <v>0.001748536388968809</v>
+        <v>0.2189681554668039</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.04240166666666666</v>
+        <v>8.775005999999999</v>
       </c>
       <c r="H4">
-        <v>0.127205</v>
+        <v>26.325018</v>
       </c>
       <c r="I4">
-        <v>0.004737824075193167</v>
+        <v>0.9920592728348052</v>
       </c>
       <c r="J4">
-        <v>0.004737824075193166</v>
+        <v>0.9920592728348053</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,42 +679,42 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.446215</v>
+        <v>3.226895</v>
       </c>
       <c r="N4">
-        <v>4.338645</v>
+        <v>9.680685</v>
       </c>
       <c r="O4">
-        <v>0.5295973180823518</v>
+        <v>0.7067166842615477</v>
       </c>
       <c r="P4">
-        <v>0.5295973180823517</v>
+        <v>0.7067166842615475</v>
       </c>
       <c r="Q4">
-        <v>0.06132192635833332</v>
+        <v>28.31602298637</v>
       </c>
       <c r="R4">
-        <v>0.5518973372249999</v>
+        <v>254.84420687733</v>
       </c>
       <c r="S4">
-        <v>0.002509138923768299</v>
+        <v>0.7011048398887356</v>
       </c>
       <c r="T4">
-        <v>0.002509138923768299</v>
+        <v>0.7011048398887356</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,40 +729,40 @@
         <v>26.325018</v>
       </c>
       <c r="I5">
-        <v>0.9804905786745289</v>
+        <v>0.9920592728348052</v>
       </c>
       <c r="J5">
-        <v>0.9804905786745289</v>
+        <v>0.9920592728348053</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.2767476666666667</v>
+        <v>0.006173333333333333</v>
       </c>
       <c r="N5">
-        <v>0.8302430000000001</v>
+        <v>0.01852</v>
       </c>
       <c r="O5">
-        <v>0.1013437297028556</v>
+        <v>0.001352011039768762</v>
       </c>
       <c r="P5">
-        <v>0.1013437297028556</v>
+        <v>0.001352011039768762</v>
       </c>
       <c r="Q5">
-        <v>2.428462435486</v>
+        <v>0.05417103703999999</v>
       </c>
       <c r="R5">
-        <v>21.856161919374</v>
+        <v>0.4875393333599999</v>
       </c>
       <c r="S5">
-        <v>0.09936657218138795</v>
+        <v>0.001341275088977627</v>
       </c>
       <c r="T5">
-        <v>0.09936657218138795</v>
+        <v>0.001341275088977627</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>8.775005999999999</v>
+        <v>0.07023766666666667</v>
       </c>
       <c r="H6">
-        <v>26.325018</v>
+        <v>0.210713</v>
       </c>
       <c r="I6">
-        <v>0.9804905786745289</v>
+        <v>0.007940727165194733</v>
       </c>
       <c r="J6">
-        <v>0.9804905786745289</v>
+        <v>0.007940727165194734</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.007819666666667</v>
+        <v>0.3251496666666667</v>
       </c>
       <c r="N6">
-        <v>3.023459</v>
+        <v>0.975449</v>
       </c>
       <c r="O6">
-        <v>0.3690589522147927</v>
+        <v>0.07121046526627427</v>
       </c>
       <c r="P6">
-        <v>0.3690589522147927</v>
+        <v>0.07121046526627427</v>
       </c>
       <c r="Q6">
-        <v>8.843623621917999</v>
+        <v>0.02283775390411111</v>
       </c>
       <c r="R6">
-        <v>79.592612597262</v>
+        <v>0.205539785137</v>
       </c>
       <c r="S6">
-        <v>0.3618588256220974</v>
+        <v>0.00056546287598606</v>
       </c>
       <c r="T6">
-        <v>0.3618588256220974</v>
+        <v>0.0005654628759860601</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>8.775005999999999</v>
+        <v>0.07023766666666667</v>
       </c>
       <c r="H7">
-        <v>26.325018</v>
+        <v>0.210713</v>
       </c>
       <c r="I7">
-        <v>0.9804905786745289</v>
+        <v>0.007940727165194733</v>
       </c>
       <c r="J7">
-        <v>0.9804905786745289</v>
+        <v>0.007940727165194734</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,42 +865,42 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.446215</v>
+        <v>1.007819666666667</v>
       </c>
       <c r="N7">
-        <v>4.338645</v>
+        <v>3.023459</v>
       </c>
       <c r="O7">
-        <v>0.5295973180823518</v>
+        <v>0.2207208394324094</v>
       </c>
       <c r="P7">
-        <v>0.5295973180823517</v>
+        <v>0.2207208394324094</v>
       </c>
       <c r="Q7">
-        <v>12.69054530229</v>
+        <v>0.07078690180744444</v>
       </c>
       <c r="R7">
-        <v>114.21490772061</v>
+        <v>0.6370821162670001</v>
       </c>
       <c r="S7">
-        <v>0.5192651808710437</v>
+        <v>0.001752683965605518</v>
       </c>
       <c r="T7">
-        <v>0.5192651808710436</v>
+        <v>0.001752683965605518</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -906,16 +909,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.1322</v>
+        <v>0.07023766666666667</v>
       </c>
       <c r="H8">
-        <v>0.3966</v>
+        <v>0.210713</v>
       </c>
       <c r="I8">
-        <v>0.01477159725027798</v>
+        <v>0.007940727165194733</v>
       </c>
       <c r="J8">
-        <v>0.01477159725027797</v>
+        <v>0.007940727165194734</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,42 +927,42 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2767476666666667</v>
+        <v>3.226895</v>
       </c>
       <c r="N8">
-        <v>0.8302430000000001</v>
+        <v>9.680685</v>
       </c>
       <c r="O8">
-        <v>0.1013437297028556</v>
+        <v>0.7067166842615477</v>
       </c>
       <c r="P8">
-        <v>0.1013437297028556</v>
+        <v>0.7067166842615475</v>
       </c>
       <c r="Q8">
-        <v>0.03658604153333334</v>
+        <v>0.2266495753783334</v>
       </c>
       <c r="R8">
-        <v>0.3292743738</v>
+        <v>2.039846178405</v>
       </c>
       <c r="S8">
-        <v>0.001497008759011617</v>
+        <v>0.00561184437281202</v>
       </c>
       <c r="T8">
-        <v>0.001497008759011616</v>
+        <v>0.00561184437281202</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -968,108 +971,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.1322</v>
+        <v>0.07023766666666667</v>
       </c>
       <c r="H9">
-        <v>0.3966</v>
+        <v>0.210713</v>
       </c>
       <c r="I9">
-        <v>0.01477159725027798</v>
+        <v>0.007940727165194733</v>
       </c>
       <c r="J9">
-        <v>0.01477159725027797</v>
+        <v>0.007940727165194734</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.007819666666667</v>
+        <v>0.006173333333333333</v>
       </c>
       <c r="N9">
-        <v>3.023459</v>
+        <v>0.01852</v>
       </c>
       <c r="O9">
-        <v>0.3690589522147927</v>
+        <v>0.001352011039768762</v>
       </c>
       <c r="P9">
-        <v>0.3690589522147927</v>
+        <v>0.001352011039768762</v>
       </c>
       <c r="Q9">
-        <v>0.1332337599333333</v>
+        <v>0.0004336005288888889</v>
       </c>
       <c r="R9">
-        <v>1.1991038394</v>
+        <v>0.00390240476</v>
       </c>
       <c r="S9">
-        <v>0.005451590203726503</v>
+        <v>1.073595079113499E-05</v>
       </c>
       <c r="T9">
-        <v>0.005451590203726501</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.1322</v>
-      </c>
-      <c r="H10">
-        <v>0.3966</v>
-      </c>
-      <c r="I10">
-        <v>0.01477159725027798</v>
-      </c>
-      <c r="J10">
-        <v>0.01477159725027797</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.446215</v>
-      </c>
-      <c r="N10">
-        <v>4.338645</v>
-      </c>
-      <c r="O10">
-        <v>0.5295973180823518</v>
-      </c>
-      <c r="P10">
-        <v>0.5295973180823517</v>
-      </c>
-      <c r="Q10">
-        <v>0.191189623</v>
-      </c>
-      <c r="R10">
-        <v>1.720706607</v>
-      </c>
-      <c r="S10">
-        <v>0.007822998287539858</v>
-      </c>
-      <c r="T10">
-        <v>0.007822998287539854</v>
+        <v>1.073595079113499E-05</v>
       </c>
     </row>
   </sheetData>
